--- a/Docs/StundenlisteTobias.xlsx
+++ b/Docs/StundenlisteTobias.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Semester 4\SE2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Semester 4\se2blokus\se2blokus\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>Tobias Hohenwarter</t>
   </si>
@@ -47,19 +47,139 @@
     <t>17.4.</t>
   </si>
   <si>
-    <t>Einarbeiten Android Studio, Netzwerkkommunikation</t>
-  </si>
-  <si>
     <t>23.4.</t>
   </si>
   <si>
-    <t>Netzwerkkommunikation</t>
-  </si>
-  <si>
     <t>25.4.</t>
   </si>
   <si>
     <t>26.4.</t>
+  </si>
+  <si>
+    <t>30.4.</t>
+  </si>
+  <si>
+    <t>1.5.</t>
+  </si>
+  <si>
+    <t>Einarbeiten Android Studio, Netzwerkkommunikation einlesen</t>
+  </si>
+  <si>
+    <t>Netzwerkkommunikation einlesen</t>
+  </si>
+  <si>
+    <t>Netzwerkkommunikation ausprobieren verschiedener Möglichkeiten</t>
+  </si>
+  <si>
+    <t>Netzwerkkommunikation Google Nearby connections einbetten</t>
+  </si>
+  <si>
+    <t>Netzwerkkommunikation anpassen</t>
+  </si>
+  <si>
+    <t>2.5.</t>
+  </si>
+  <si>
+    <t>3.5.</t>
+  </si>
+  <si>
+    <t>5.5.</t>
+  </si>
+  <si>
+    <t>Dokumentation und Refaktoring</t>
+  </si>
+  <si>
+    <t>7.5.</t>
+  </si>
+  <si>
+    <t>9.5.</t>
+  </si>
+  <si>
+    <t>Fehleranalyse</t>
+  </si>
+  <si>
+    <t>Fehlerkorrektur und Erweiterungen</t>
+  </si>
+  <si>
+    <t>10.5.</t>
+  </si>
+  <si>
+    <t>Synchronisation mit Manuel, Einrichtung einer passenden Android-Version am eigenen Smartphone</t>
+  </si>
+  <si>
+    <t>17.5.</t>
+  </si>
+  <si>
+    <t>Fehleranalyse bzw Probleme mit Android Studio / Probleme mit der App</t>
+  </si>
+  <si>
+    <t>22.5.</t>
+  </si>
+  <si>
+    <t>23.5.</t>
+  </si>
+  <si>
+    <t>24.5.</t>
+  </si>
+  <si>
+    <t>Bugfixing (v.A."logische Bugs")</t>
+  </si>
+  <si>
+    <t>28.5.</t>
+  </si>
+  <si>
+    <t>30.5.</t>
+  </si>
+  <si>
+    <t>31.5.</t>
+  </si>
+  <si>
+    <t>Lobby</t>
+  </si>
+  <si>
+    <t>Synchroner Spielstart mit synchroner Farbauswahl und Funktionen für Kommuniktation im Spiel</t>
+  </si>
+  <si>
+    <t>2.6.</t>
+  </si>
+  <si>
+    <t>3.6.</t>
+  </si>
+  <si>
+    <t>5.6.</t>
+  </si>
+  <si>
+    <t>6.6.</t>
+  </si>
+  <si>
+    <t>7.6.</t>
+  </si>
+  <si>
+    <t>Neugestaltung der Lobby, zufällige Zuteilung der Startreihenfolge, rundenbasierte Aufteilung des Spiels</t>
+  </si>
+  <si>
+    <t>Auslagerung ByteArray-Umwandlung + Tests</t>
+  </si>
+  <si>
+    <t>19.6.</t>
+  </si>
+  <si>
+    <t>Aufräumen + Codedoku</t>
+  </si>
+  <si>
+    <t>20.6.</t>
+  </si>
+  <si>
+    <t>Fehlerbehebung in Lobby &amp; Farbauswahl; 3 Spielermodus</t>
+  </si>
+  <si>
+    <t>12.6.</t>
+  </si>
+  <si>
+    <t>21.6.</t>
+  </si>
+  <si>
+    <t>Abschließende Fehlerbehebungen und Erweiterungen</t>
   </si>
 </sst>
 </file>
@@ -95,8 +215,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -377,15 +504,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="91.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -423,43 +550,300 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C23:C27"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>